--- a/excel/records.xlsx
+++ b/excel/records.xlsx
@@ -29,7 +29,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>r1</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
   <si>
     <t>Passed</t>
   </si>
@@ -1022,77 +1031,88 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" ht="14.5" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>106</v>
-      </c>
-      <c r="C1" s="2">
-        <v>18</v>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" ht="14.5" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" ht="14.5" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" ht="14.5" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2">
-        <v>168</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" ht="14.5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>208</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2">
-        <v>199</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" ht="14.5" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>208</v>
+      </c>
+      <c r="C6" s="2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" ht="14.5" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3">
         <v>0.51</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C7" s="3">
         <v>0.09</v>
       </c>
     </row>
